--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988292.1310533308</v>
+        <v>985773.4626388515</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673447</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>10.59609391665088</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>381.4859536980655</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>81.21182540108268</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>170.2952295752023</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>359.5250258737747</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>7.157261199728671</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>16.38051890930113</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1111,16 +1111,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>27.82062748942978</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>260.0943654000826</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>270.5139490778481</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>20.45352712646384</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>222.1526784153806</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.05927042690099</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>276.0830593329716</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238047</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114112</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1467,7 +1467,7 @@
         <v>87.05432226458127</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035295</v>
+        <v>9.753166794035309</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>124.1004521009499</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>7.641100421464698</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146349</v>
       </c>
       <c r="S13" t="n">
         <v>185.9226570076762</v>
@@ -1582,7 +1582,7 @@
         <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.981365633718</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1658,7 +1658,7 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001844</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>86.27179222793497</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>196.5657320891888</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701352</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>27.77749086859467</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>99.97427419833915</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016436</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206842</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187869</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819364</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106825392</v>
       </c>
       <c r="D22" t="n">
-        <v>83.0656089242831</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465651</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>19.91555826189153</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>121.8674042714167</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576175</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740385</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>139.5930054288737</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892395</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570047014</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>107.4021082756239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520916</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>105.1820732698676</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,13 +3430,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833988</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>176.519656284926</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520937</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>27.02919805176126</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0.8253826161915776</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>108.9065924712597</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>129.1078928223861</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.405431550704</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C2" t="n">
-        <v>863.4429146102927</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D2" t="n">
-        <v>863.4429146102927</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E2" t="n">
-        <v>477.6546620120485</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
         <v>466.9515368437143</v>
@@ -4328,10 +4328,10 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W2" t="n">
-        <v>1622.544763526516</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="X2" t="n">
-        <v>1622.544763526516</v>
+        <v>1649.065041401329</v>
       </c>
       <c r="Y2" t="n">
-        <v>1232.405431550704</v>
+        <v>1263.725694231566</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,16 +4410,16 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O3" t="n">
         <v>1967.526114878149</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.1026499885492</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>496.1664670606423</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
         <v>51.24678656800311</v>
@@ -4486,16 +4486,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1347.327782578335</v>
+        <v>743.1050005787336</v>
       </c>
       <c r="W4" t="n">
-        <v>1057.910612541375</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X4" t="n">
-        <v>885.8952291320793</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y4" t="n">
-        <v>665.1026499885492</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1545.153177427443</v>
+        <v>805.7846820932082</v>
       </c>
       <c r="C5" t="n">
-        <v>1181.996585635751</v>
+        <v>805.7846820932082</v>
       </c>
       <c r="D5" t="n">
-        <v>1181.996585635751</v>
+        <v>447.5189834864577</v>
       </c>
       <c r="E5" t="n">
-        <v>1181.996585635751</v>
+        <v>440.289426719055</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4586,31 +4586,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V5" t="n">
-        <v>2308.758267664335</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="W5" t="n">
-        <v>2308.758267664335</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X5" t="n">
-        <v>1935.292509403255</v>
+        <v>1582.523854133142</v>
       </c>
       <c r="Y5" t="n">
-        <v>1545.153177427443</v>
+        <v>1192.38452215733</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>367.0729169938204</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="C7" t="n">
-        <v>198.1367340659135</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D7" t="n">
         <v>198.1367340659135</v>
@@ -4711,64 +4711,64 @@
         <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1619.900141378234</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1423.271393538095</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1200.29291273283</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>911.1745752366679</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>656.4900870307811</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W7" t="n">
-        <v>367.0729169938204</v>
+        <v>797.0355035197966</v>
       </c>
       <c r="X7" t="n">
-        <v>367.0729169938204</v>
+        <v>569.0459526217793</v>
       </c>
       <c r="Y7" t="n">
-        <v>367.0729169938204</v>
+        <v>348.2533734782492</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2688.538263200155</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.308520734406</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,49 +4884,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.6477645191717</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1906.634419677923</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1906.634419677923</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1906.634419677923</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1617.531552803567</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1362.84706459768</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1073.429894560719</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>845.4403436627018</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="Y10" t="n">
-        <v>624.6477645191717</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1923.79428544462</v>
+        <v>1535.258832689346</v>
       </c>
       <c r="C11" t="n">
-        <v>1554.831768504208</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>1196.566069897458</v>
+        <v>898.1213569785843</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.566069897458</v>
+        <v>512.3331043803402</v>
       </c>
       <c r="F11" t="n">
-        <v>785.5801651078502</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374971</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469175</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
         <v>78.51106622469175</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386834</v>
+        <v>308.7333971386829</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420319</v>
+        <v>704.5155104420314</v>
       </c>
       <c r="L11" t="n">
         <v>1232.419981301224</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878108</v>
+        <v>1851.484858878107</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765423</v>
+        <v>2485.180661765422</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687099</v>
+        <v>3070.226377687097</v>
       </c>
       <c r="P11" t="n">
         <v>3535.048359856279</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882238</v>
+        <v>3835.937563882237</v>
       </c>
       <c r="R11" t="n">
         <v>3925.553311234587</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234587</v>
+        <v>3826.588132455657</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.751200750367</v>
+        <v>3622.786021971437</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.260484382976</v>
+        <v>3369.295305604044</v>
       </c>
       <c r="V11" t="n">
-        <v>3137.197597039405</v>
+        <v>3038.232418260473</v>
       </c>
       <c r="W11" t="n">
-        <v>2784.428941769291</v>
+        <v>2685.463762990359</v>
       </c>
       <c r="X11" t="n">
-        <v>2410.963183508211</v>
+        <v>2311.998004729279</v>
       </c>
       <c r="Y11" t="n">
-        <v>2020.823851532399</v>
+        <v>1921.858672753468</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503043</v>
+        <v>88.36274985503044</v>
       </c>
       <c r="I12" t="n">
         <v>78.51106622469175</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792126</v>
+        <v>196.8120623792125</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376497</v>
+        <v>477.1621322376495</v>
       </c>
       <c r="L12" t="n">
-        <v>671.0277318723424</v>
+        <v>900.4499396649587</v>
       </c>
       <c r="M12" t="n">
-        <v>1184.341506116231</v>
+        <v>1413.763713908847</v>
       </c>
       <c r="N12" t="n">
-        <v>1725.649813467298</v>
+        <v>1955.072021259914</v>
       </c>
       <c r="O12" t="n">
-        <v>2198.621366333046</v>
+        <v>1991.670362601624</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2351.938665441778</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>572.7620693423967</v>
+        <v>203.8650582458534</v>
       </c>
       <c r="C13" t="n">
-        <v>403.8258864144898</v>
+        <v>203.8650582458533</v>
       </c>
       <c r="D13" t="n">
-        <v>253.7092470021539</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="E13" t="n">
-        <v>253.7092470021539</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="F13" t="n">
-        <v>245.990963748149</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="G13" t="n">
         <v>78.51106622469175</v>
@@ -5203,7 +5203,7 @@
         <v>368.4550473457699</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888908</v>
+        <v>717.5002252888909</v>
       </c>
       <c r="M13" t="n">
         <v>1095.90854877922</v>
@@ -5221,28 +5221,28 @@
         <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551103</v>
+        <v>2076.102739014271</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906985</v>
+        <v>1888.302075370153</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457031</v>
+        <v>1667.488017920199</v>
       </c>
       <c r="U13" t="n">
-        <v>1747.294322457031</v>
+        <v>1378.397311360488</v>
       </c>
       <c r="V13" t="n">
-        <v>1492.609834251144</v>
+        <v>1123.712823154601</v>
       </c>
       <c r="W13" t="n">
-        <v>1203.192664214184</v>
+        <v>834.2956531176405</v>
       </c>
       <c r="X13" t="n">
-        <v>975.2031133161665</v>
+        <v>606.3061022196232</v>
       </c>
       <c r="Y13" t="n">
-        <v>754.4105341726364</v>
+        <v>385.5135230760931</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965433</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358683</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760439</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2220959708309</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
         <v>92.81162322608056</v>
@@ -5276,28 +5276,28 @@
         <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128772</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957691</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R14" t="n">
         <v>4640.581161304028</v>
@@ -5306,22 +5306,22 @@
         <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100994</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820543</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206858</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412853</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.700680385037</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>1586.31563634397</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
-        <v>1586.31563634397</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O15" t="n">
-        <v>2133.192111344164</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>706.6674866466267</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>537.7313037187198</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="D16" t="n">
-        <v>387.614664306384</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="E16" t="n">
-        <v>239.7015707239909</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F16" t="n">
-        <v>92.81162322608056</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G16" t="n">
         <v>92.81162322608056</v>
@@ -5434,19 +5434,19 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.51642936867</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.51642936867</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2140.837647083052</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>1851.761433397778</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1597.076945191891</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1307.659775154931</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1109.108530620397</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>888.3159514768664</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876686</v>
+        <v>513.8536007400724</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876686</v>
+        <v>344.9174178121655</v>
       </c>
       <c r="D19" t="n">
-        <v>430.7826650753329</v>
+        <v>194.8007783998296</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998296</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614385</v>
+        <v>916.2946447138422</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179083</v>
+        <v>695.5020655703121</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5753,7 +5753,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5783,16 +5783,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400727</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121658</v>
+        <v>559.0424953278167</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>408.925855915481</v>
       </c>
       <c r="E22" t="n">
         <v>261.0127623330919</v>
@@ -5908,16 +5908,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138413</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703112</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356194</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232835</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,49 +6148,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580259</v>
+        <v>2426.846358063198</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580259</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.3616186032</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>2104.263230450254</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1849.578742244367</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1560.161572207407</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1332.172021309389</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>1111.379442165859</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6218,40 +6218,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6309,22 +6309,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1097.958364892466</v>
+        <v>513.8536007400751</v>
       </c>
       <c r="C28" t="n">
-        <v>929.0221819645589</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>778.9055425522231</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E28" t="n">
-        <v>630.9924489698299</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F28" t="n">
-        <v>484.1025014719195</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>316.9064021867994</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6397,37 +6397,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138449</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703148</v>
       </c>
     </row>
     <row r="29">
@@ -6449,52 +6449,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123002</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098238</v>
+        <v>513.8536007400756</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819169</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695811</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>516.3896878871881</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>369.4997403892776</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>202.3036411041576</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6634,37 +6634,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783594</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703154</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6716,34 +6716,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6786,19 +6786,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.3099000622258</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C34" t="n">
-        <v>747.3737171343189</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D34" t="n">
-        <v>597.257077721983</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E34" t="n">
-        <v>449.34398413959</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F34" t="n">
-        <v>449.34398413959</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>282.14788485447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6871,37 +6871,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.84215317686</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970973</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y34" t="n">
-        <v>1097.958364892465</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="35">
@@ -6914,73 +6914,73 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362689</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998304</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362687</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597626</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.846482147427</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.846482147427</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121644</v>
+        <v>261.846482147427</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>94.6503828623068</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>94.6503828623068</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782961</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038348</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179092</v>
       </c>
     </row>
     <row r="41">
@@ -7406,16 +7406,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452613</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2529.355041543136</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327656</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048588</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D43" t="n">
-        <v>594.8179559048588</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>594.8179559048588</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7588,31 +7588,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580262</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603203</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741514</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704553</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806536</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630054</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452613</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7783,19 +7783,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>365.9405071576782</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>365.9405071576783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,7 +7807,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797745</v>
@@ -7819,7 +7819,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
@@ -8058,19 +8058,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>30.36925650589444</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>45.44676101130841</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>186.5911984019042</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>286.6745712365796</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>89.18983243803598</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238041</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114111</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.51502091726248</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>137.7799476014665</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034043</v>
+        <v>89.71507747034045</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146347</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613728951</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.29152613728972</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>60.1621704186342</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>29.14392329984838</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>118.6564717779745</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>45.4467738245921</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>145.6085800303739</v>
       </c>
       <c r="D22" t="n">
-        <v>65.54986409392926</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823013</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>164.3170701178275</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.4467738245893</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0.7017074173501499</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>65.5498640939264</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>32.89260457059981</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>45.4467738245925</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>35.11263957635629</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016477</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844822929</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856852</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405076</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>80.44045370237382</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>36.51445555167153</v>
+        <v>45.4467738245925</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.36835372228738</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>36.41624546988272</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>892396.5583368053</v>
+        <v>892396.5583368056</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>971144.9975107977</v>
+        <v>971144.9975107976</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>976505.1911731678</v>
+        <v>976505.1911731677</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>976505.1911731678</v>
+        <v>976505.1911731677</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>976505.1911731678</v>
+        <v>976505.1911731677</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>976505.1911731678</v>
+        <v>976505.1911731677</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>976505.1911731678</v>
+        <v>976505.1911731677</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>976505.1911731678</v>
+        <v>976505.1911731677</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>451572.973425356</v>
+      </c>
+      <c r="C2" t="n">
         <v>451572.9734253559</v>
       </c>
-      <c r="C2" t="n">
-        <v>451572.9734253558</v>
-      </c>
       <c r="D2" t="n">
-        <v>451572.9734253558</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>405380.8397795039</v>
+        <v>405380.8397795037</v>
       </c>
       <c r="F2" t="n">
         <v>441473.8744009171</v>
       </c>
       <c r="G2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="H2" t="n">
         <v>443930.6298295035</v>
       </c>
       <c r="I2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="J2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="K2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="L2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="M2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="N2" t="n">
         <v>443930.6298295035</v>
       </c>
       <c r="O2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185148</v>
+        <v>143114.1392185145</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051392</v>
+        <v>166521.3471051394</v>
       </c>
       <c r="G3" t="n">
         <v>11167.23623557874</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.3285511531</v>
+        <v>37377.32855115307</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848951</v>
+        <v>43782.40655848942</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224738</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,10 +26421,10 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309559</v>
+        <v>87914.29116309555</v>
       </c>
       <c r="E4" t="n">
-        <v>8628.13543443824</v>
+        <v>8628.135434438238</v>
       </c>
       <c r="F4" t="n">
         <v>8720.723770518933</v>
@@ -26433,16 +26433,16 @@
         <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
@@ -26451,13 +26451,13 @@
         <v>8727.256391744284</v>
       </c>
       <c r="N4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8727.256391744286</v>
+      </c>
+      <c r="P4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8727.256391744284</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.7724398447</v>
+      </c>
+      <c r="C5" t="n">
         <v>92937.77243984472</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-891638.7195673918</v>
+        <v>-891638.7195673916</v>
       </c>
       <c r="C6" t="n">
         <v>223113.064008528</v>
       </c>
       <c r="D6" t="n">
-        <v>63097.60126052915</v>
+        <v>63097.60126052905</v>
       </c>
       <c r="E6" t="n">
-        <v>167544.8429644038</v>
+        <v>167334.8787205592</v>
       </c>
       <c r="F6" t="n">
-        <v>166089.6750114206</v>
+        <v>166043.7700158547</v>
       </c>
       <c r="G6" t="n">
-        <v>322913.6073782733</v>
+        <v>322878.8694528376</v>
       </c>
       <c r="H6" t="n">
-        <v>334080.8436138521</v>
+        <v>334046.1056884164</v>
       </c>
       <c r="I6" t="n">
-        <v>334080.843613852</v>
+        <v>334046.105688416</v>
       </c>
       <c r="J6" t="n">
-        <v>166475.6658038696</v>
+        <v>166440.9278784336</v>
       </c>
       <c r="K6" t="n">
-        <v>334080.843613852</v>
+        <v>334046.1056884163</v>
       </c>
       <c r="L6" t="n">
-        <v>285786.8736056614</v>
+        <v>285752.1356802254</v>
       </c>
       <c r="M6" t="n">
-        <v>296703.515062699</v>
+        <v>296668.7771372632</v>
       </c>
       <c r="N6" t="n">
-        <v>290298.4370553626</v>
+        <v>290263.6991299269</v>
       </c>
       <c r="O6" t="n">
-        <v>331057.5456366273</v>
+        <v>331022.8077111915</v>
       </c>
       <c r="P6" t="n">
-        <v>334080.843613852</v>
+        <v>334046.1056884165</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,13 +26790,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086469</v>
+        <v>981.3883278086467</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
@@ -26811,16 +26811,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012567</v>
+        <v>122.3935669012565</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218308</v>
+        <v>145.8707812218311</v>
       </c>
       <c r="G3" t="n">
         <v>9.93445162528792</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063542</v>
+        <v>149.9868724063539</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173601</v>
+        <v>178.7569625173602</v>
       </c>
       <c r="G4" t="n">
         <v>12.56299777364143</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063542</v>
+        <v>149.9868724063541</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173603</v>
+        <v>178.75696251736</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364143</v>
@@ -27264,10 +27264,10 @@
         <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063542</v>
+        <v>149.9868724063539</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173601</v>
+        <v>178.7569625173602</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364143</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>396.2799518250606</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>4.751984957988043</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>170.9258179227453</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>55.41442581383484</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>5.747865897232828</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>374.7731088725331</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,7 +27789,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>85.17705351027249</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>258.7023708471612</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.639476263398</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>57.23830939228679</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>68.47862554358349</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>3.556976973656589</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-13</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-5.284756933526589e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -28965,7 +28965,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>4.035882739117369e-12</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-6.998628858978087e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29487,7 +29487,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>4.604316927725449e-12</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>-2.779647469158316e-13</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29736,7 +29736,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
     </row>
     <row r="32">
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>9.28537247091299e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29955,7 +29955,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>-7.965435133550913e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30162,7 +30162,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-7.032208304403596e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30210,7 +30210,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
     </row>
     <row r="38">
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485645</v>
+        <v>4.873046301485644</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508987</v>
+        <v>49.90608543508986</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380255</v>
+        <v>187.8681175380254</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307176</v>
+        <v>413.5937135307175</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726051</v>
+        <v>619.869763472605</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216965</v>
+        <v>769.0032542216964</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857418</v>
+        <v>855.6642913857416</v>
       </c>
       <c r="N11" t="n">
-        <v>869.509834189838</v>
+        <v>869.5098341898378</v>
       </c>
       <c r="O11" t="n">
-        <v>821.05348002944</v>
+        <v>821.0534800294399</v>
       </c>
       <c r="P11" t="n">
-        <v>700.750149461513</v>
+        <v>700.7501494615129</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895583</v>
+        <v>526.2341787895582</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356979</v>
+        <v>306.1064947356978</v>
       </c>
       <c r="S11" t="n">
         <v>111.0445425951042</v>
@@ -31792,7 +31792,7 @@
         <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188515</v>
+        <v>0.3898437041188514</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31835,43 @@
         <v>25.18112197191519</v>
       </c>
       <c r="I12" t="n">
-        <v>89.7692132059647</v>
+        <v>89.76921320596469</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783039</v>
+        <v>246.3335823783038</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202551</v>
+        <v>421.0233277202549</v>
       </c>
       <c r="L12" t="n">
-        <v>334.3782177947153</v>
+        <v>566.117821625641</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845324</v>
+        <v>660.6327957845323</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147134</v>
+        <v>678.1177801147132</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431804</v>
+        <v>179.5642660017277</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205466</v>
+        <v>497.8817840205465</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>332.8207874071842</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697582</v>
+        <v>48.42963285697581</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780656</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190409</v>
+        <v>0.1715335284190408</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,31 +31908,31 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236083</v>
+        <v>2.185880810236082</v>
       </c>
       <c r="H13" t="n">
         <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691785</v>
+        <v>65.73539745691784</v>
       </c>
       <c r="J13" t="n">
         <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619739</v>
+        <v>253.9596068619738</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509173</v>
+        <v>324.9808615509172</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263706</v>
+        <v>342.6467528263705</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973091</v>
+        <v>334.499378897309</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050057</v>
+        <v>308.9643167050056</v>
       </c>
       <c r="P13" t="n">
         <v>264.3723481761893</v>
@@ -31941,13 +31941,13 @@
         <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570602</v>
+        <v>98.28514988570599</v>
       </c>
       <c r="S13" t="n">
         <v>38.09394102929608</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826896</v>
+        <v>9.339672552826894</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765137</v>
@@ -32072,7 +32072,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>275.9770021735818</v>
@@ -32084,10 +32084,10 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>672.0481308502335</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>427.3161054158215</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426205</v>
@@ -32096,7 +32096,7 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>211.7351844430268</v>
       </c>
       <c r="M24" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>196.3041720118997</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>303.4297552732306</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>314.5984986256099</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,7 +34205,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34214,7 +34214,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963282</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34229,10 +34229,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>169.6252075171348</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>397.300588787935</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>380.8714430074314</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34799,7 +34799,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.584832100039</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>553.5225306839446</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>232.5478090040313</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276245</v>
+        <v>399.7799124276244</v>
       </c>
       <c r="L11" t="n">
         <v>533.2368392517092</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584691</v>
+        <v>625.3180581584689</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932471</v>
+        <v>640.0967705932469</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077533</v>
+        <v>590.9552686077532</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062435</v>
+        <v>469.5171537062434</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151088</v>
+        <v>303.9284889151087</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156576</v>
+        <v>90.5209569215657</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>119.4959557116372</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458961</v>
+        <v>283.1818887458959</v>
       </c>
       <c r="L12" t="n">
-        <v>195.8238380148411</v>
+        <v>427.5634418457668</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625141</v>
+        <v>518.4987618625139</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313801</v>
+        <v>546.77606803138</v>
       </c>
       <c r="O12" t="n">
-        <v>477.749043298736</v>
+        <v>36.9680215572833</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062164</v>
+        <v>363.9073766062163</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.8390133211627</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936553</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701824</v>
+        <v>61.18259316701821</v>
       </c>
       <c r="K13" t="n">
         <v>231.690115036091</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112334</v>
+        <v>352.5708868112333</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882112</v>
+        <v>382.2306297882111</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765377</v>
+        <v>378.6315512765376</v>
       </c>
       <c r="O13" t="n">
         <v>333.5494446190453</v>
@@ -35586,7 +35586,7 @@
         <v>261.6509074410828</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998341</v>
+        <v>96.87566713998338</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
         <v>149.1393755069151</v>
@@ -35732,10 +35732,10 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>529.9140969282151</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>295.9743933324882</v>
       </c>
       <c r="O15" t="n">
         <v>552.4004797981761</v>
@@ -35744,7 +35744,7 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="M24" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>57.74979223202556</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>180.6240912112796</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>261.348781916454</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37877,10 +37877,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>23.94570355317081</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
